--- a/xlsx/a69_f42_bUPPachuca.xlsx
+++ b/xlsx/a69_f42_bUPPachuca.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TRANSPARENCIA UPP\SIPOT 3ER TRI 23\UPP 3ER TRI 2023 SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guada\Desktop\4to trimestre\integracion\UPP 4TO TRI SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0180DC3-6A9E-4EA1-BD52-DCEF63350E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E299DA0-FB12-4288-AEA0-55ECCFD03B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,9 @@
     <sheet name="Hidden_2" sheetId="3" r:id="rId3"/>
     <sheet name="Hidden_3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$4</definedName>
     <definedName name="Hidden_28">Hidden_2!$A$1:$A$2</definedName>
-    <definedName name="Hidden_29">[1]Hidden_2!$A$1:$A$6</definedName>
     <definedName name="Hidden_310">Hidden_3!$A$1:$A$6</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -205,16 +201,19 @@
     <t>Anual</t>
   </si>
   <si>
-    <t>Departamento de Recursos Humanos (UPP)</t>
-  </si>
-  <si>
     <t>Para este periodo no se cuenta con personal jubilado o pensionado</t>
+  </si>
+  <si>
+    <t>Subdirección de Recursos Humanos (UPP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,11 +227,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -282,21 +283,29 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -313,54 +322,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Reporte de Formatos"/>
-      <sheetName val="Hidden_1"/>
-      <sheetName val="Hidden_2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Quincenal</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Mensual</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Bimestral</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Trimestral</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Semestral</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Anual</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -663,26 +624,26 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
-    <col min="9" max="9" width="82.28515625" customWidth="1"/>
-    <col min="10" max="10" width="80.28515625" customWidth="1"/>
-    <col min="11" max="11" width="50.28515625" customWidth="1"/>
-    <col min="12" max="12" width="77.28515625" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="25.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -690,229 +651,229 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>2023</v>
       </c>
-      <c r="B8" s="3">
-        <v>45108</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45199</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
+      <c r="B8" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="4">
+        <v>45301</v>
+      </c>
+      <c r="N8" s="4">
+        <v>45301</v>
+      </c>
+      <c r="O8" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="M8" s="3">
-        <v>45209</v>
-      </c>
-      <c r="N8" s="3">
-        <v>45209</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -925,18 +886,15 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D193" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I9:I201" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I193" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Hidden_28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K9:K201" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K193" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Hidden_310</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8" xr:uid="{89629550-12EA-4B8A-A241-E45183E987BF}">
-      <formula1>Hidden_29</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
